--- a/Code/Results/Cases/Case_1_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.818562265955782</v>
+        <v>7.150083774525282</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.841579912303104</v>
+        <v>3.237573490718583</v>
       </c>
       <c r="E2">
-        <v>5.80346874577276</v>
+        <v>10.65779238487089</v>
       </c>
       <c r="F2">
-        <v>41.98363339203294</v>
+        <v>27.42418067053856</v>
       </c>
       <c r="G2">
-        <v>66.55643107322787</v>
+        <v>38.6082390399357</v>
       </c>
       <c r="H2">
-        <v>16.55343040827083</v>
+        <v>13.93665405262289</v>
       </c>
       <c r="I2">
-        <v>12.50979111190689</v>
+        <v>17.39779600370851</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>31.35254226578105</v>
+        <v>19.01097732685402</v>
       </c>
       <c r="N2">
-        <v>13.78752540780547</v>
+        <v>16.74216291963044</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.275221784415278</v>
+        <v>6.96126610514583</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.572235534905484</v>
+        <v>3.221632694131318</v>
       </c>
       <c r="E3">
-        <v>6.079702491294242</v>
+        <v>10.75199199973205</v>
       </c>
       <c r="F3">
-        <v>38.81228394269198</v>
+        <v>26.45221855932836</v>
       </c>
       <c r="G3">
-        <v>61.50251501015715</v>
+        <v>36.65244489645163</v>
       </c>
       <c r="H3">
-        <v>15.30325789812353</v>
+        <v>13.71826460683177</v>
       </c>
       <c r="I3">
-        <v>12.61038014822676</v>
+        <v>17.46551527722893</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.18555034996863</v>
+        <v>18.20532322585688</v>
       </c>
       <c r="N3">
-        <v>13.62132128130497</v>
+        <v>16.71726560329046</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.9220640411892</v>
+        <v>6.843164313807258</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.402624783165579</v>
+        <v>3.213198901088585</v>
       </c>
       <c r="E4">
-        <v>6.252094989385222</v>
+        <v>10.81259673085782</v>
       </c>
       <c r="F4">
-        <v>36.79232160715363</v>
+        <v>25.84858229052279</v>
       </c>
       <c r="G4">
-        <v>58.28385320343531</v>
+        <v>35.41245292027211</v>
       </c>
       <c r="H4">
-        <v>14.50792894991319</v>
+        <v>13.5877488252076</v>
       </c>
       <c r="I4">
-        <v>12.68024853437607</v>
+        <v>17.51090699389515</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.79183120955809</v>
+        <v>17.69575121732931</v>
       </c>
       <c r="N4">
-        <v>13.5219809078025</v>
+        <v>16.70409753502454</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.773247700105404</v>
+        <v>6.794558456863385</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.332355888701247</v>
+        <v>3.210102356666742</v>
       </c>
       <c r="E5">
-        <v>6.323128130553575</v>
+        <v>10.83799223349365</v>
       </c>
       <c r="F5">
-        <v>35.95024054433544</v>
+        <v>25.60132012339781</v>
       </c>
       <c r="G5">
-        <v>56.94209324283742</v>
+        <v>34.89807123698314</v>
       </c>
       <c r="H5">
-        <v>14.17661198770508</v>
+        <v>13.53552980815524</v>
       </c>
       <c r="I5">
-        <v>12.71071157314886</v>
+        <v>17.53036315264098</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.20762770507188</v>
+        <v>17.48465987682765</v>
       </c>
       <c r="N5">
-        <v>13.48221887479162</v>
+        <v>16.69926957048985</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.748241347280066</v>
+        <v>6.786460617431629</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.320616012930656</v>
+        <v>3.209608713459607</v>
       </c>
       <c r="E6">
-        <v>6.334972618273621</v>
+        <v>10.84225142077871</v>
       </c>
       <c r="F6">
-        <v>35.80925408115422</v>
+        <v>25.56019909244887</v>
       </c>
       <c r="G6">
-        <v>56.71744765359791</v>
+        <v>34.81213511163889</v>
       </c>
       <c r="H6">
-        <v>14.12115527761014</v>
+        <v>13.526919237882</v>
       </c>
       <c r="I6">
-        <v>12.71588883588377</v>
+        <v>17.53365173822968</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.10962989341287</v>
+        <v>17.4494105548347</v>
       </c>
       <c r="N6">
-        <v>13.47566100321305</v>
+        <v>16.69850054216067</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.920076875915123</v>
+        <v>6.842510644523197</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.401681877120048</v>
+        <v>3.213155762846229</v>
       </c>
       <c r="E7">
-        <v>6.253049698195039</v>
+        <v>10.81293639081975</v>
       </c>
       <c r="F7">
-        <v>36.78104240596598</v>
+        <v>25.84525217626835</v>
       </c>
       <c r="G7">
-        <v>58.26588102942836</v>
+        <v>35.40555143632503</v>
       </c>
       <c r="H7">
-        <v>14.50349018517435</v>
+        <v>13.58704057692082</v>
       </c>
       <c r="I7">
-        <v>12.68065136923405</v>
+        <v>17.51116550462779</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.78401868523212</v>
+        <v>17.69291784332987</v>
       </c>
       <c r="N7">
-        <v>13.52144169804541</v>
+        <v>16.70403023771417</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.635280272241193</v>
+        <v>7.08546782846554</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.749531116283184</v>
+        <v>3.23179619608532</v>
       </c>
       <c r="E8">
-        <v>5.898187642724887</v>
+        <v>10.68970025017861</v>
       </c>
       <c r="F8">
-        <v>40.90482388017514</v>
+        <v>27.09072660808541</v>
       </c>
       <c r="G8">
-        <v>64.83710807902361</v>
+        <v>37.94242438528103</v>
       </c>
       <c r="H8">
-        <v>16.12795924221821</v>
+        <v>13.86065255094231</v>
       </c>
       <c r="I8">
-        <v>12.54276295332602</v>
+        <v>17.4203545683044</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30.61823936146589</v>
+        <v>18.73645360723136</v>
       </c>
       <c r="N8">
-        <v>13.72967946630277</v>
+        <v>16.73314177615014</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.88252702716537</v>
+        <v>7.542001657786275</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.402923174436943</v>
+        <v>3.279069813196457</v>
       </c>
       <c r="E9">
-        <v>5.220342940467814</v>
+        <v>10.46983714849303</v>
       </c>
       <c r="F9">
-        <v>48.45065920099179</v>
+        <v>29.46092769062381</v>
       </c>
       <c r="G9">
-        <v>76.86684610752118</v>
+        <v>42.5788612755204</v>
       </c>
       <c r="H9">
-        <v>19.10780432209042</v>
+        <v>14.42250350450595</v>
       </c>
       <c r="I9">
-        <v>12.33884930054018</v>
+        <v>17.27251250553626</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.69442972406433</v>
+        <v>20.65290693831806</v>
       </c>
       <c r="N9">
-        <v>14.15776209940607</v>
+        <v>16.80680131513294</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.70440880703097</v>
+        <v>7.861959212412339</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.873893398986564</v>
+        <v>3.320263910469704</v>
       </c>
       <c r="E10">
-        <v>4.727141149713701</v>
+        <v>10.32139382752222</v>
       </c>
       <c r="F10">
-        <v>53.72832870278486</v>
+        <v>31.13699360560532</v>
       </c>
       <c r="G10">
-        <v>85.28768813569562</v>
+        <v>45.74849311264558</v>
       </c>
       <c r="H10">
-        <v>21.19689098134633</v>
+        <v>14.84653074450542</v>
       </c>
       <c r="I10">
-        <v>12.23256638452369</v>
+        <v>17.18231665668406</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.16321475048679</v>
+        <v>21.96844238940022</v>
       </c>
       <c r="N10">
-        <v>14.48181307547375</v>
+        <v>16.87068560099842</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.05792442063527</v>
+        <v>8.003545257199853</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.088678464604216</v>
+        <v>3.372193830603782</v>
       </c>
       <c r="E11">
-        <v>4.502308190819039</v>
+        <v>10.25666204977734</v>
       </c>
       <c r="F11">
-        <v>56.09011843773124</v>
+        <v>31.88151313408289</v>
       </c>
       <c r="G11">
-        <v>89.05850879465576</v>
+        <v>47.13427301494739</v>
       </c>
       <c r="H11">
-        <v>22.13300686195961</v>
+        <v>15.0409833283446</v>
       </c>
       <c r="I11">
-        <v>12.19430775265951</v>
+        <v>17.14528220591784</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.69404798528403</v>
+        <v>22.54463952185646</v>
       </c>
       <c r="N11">
-        <v>14.63073420535109</v>
+        <v>16.90179248740682</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.18887827423584</v>
+        <v>8.056544826091546</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.170360521058394</v>
+        <v>3.396577823217257</v>
       </c>
       <c r="E12">
-        <v>4.416969257095471</v>
+        <v>10.23254847280973</v>
       </c>
       <c r="F12">
-        <v>56.98085078384491</v>
+        <v>32.16059633441947</v>
       </c>
       <c r="G12">
-        <v>90.48108511716364</v>
+        <v>47.65065836262198</v>
       </c>
       <c r="H12">
-        <v>22.48625224401512</v>
+        <v>15.11476914077003</v>
       </c>
       <c r="I12">
-        <v>12.18132160316507</v>
+        <v>17.13183263332164</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.26794924553135</v>
+        <v>22.75948374120577</v>
       </c>
       <c r="N12">
-        <v>14.68729224588863</v>
+        <v>16.91385913076721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.16080441311098</v>
+        <v>8.045158503519795</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.152748361253461</v>
+        <v>3.391342837851548</v>
       </c>
       <c r="E13">
-        <v>4.435359511889195</v>
+        <v>10.23772406933488</v>
       </c>
       <c r="F13">
-        <v>56.78914028695262</v>
+        <v>32.10062151887529</v>
       </c>
       <c r="G13">
-        <v>90.17488593261517</v>
+        <v>47.53982258135398</v>
       </c>
       <c r="H13">
-        <v>22.41021491833422</v>
+        <v>15.09887248764644</v>
       </c>
       <c r="I13">
-        <v>12.18405084955604</v>
+        <v>17.13470368666518</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.14458887733344</v>
+        <v>22.7133642951603</v>
       </c>
       <c r="N13">
-        <v>14.6751049990087</v>
+        <v>16.91124770660378</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.06875640377458</v>
+        <v>8.007918157103754</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.095389749993216</v>
+        <v>3.374207361762671</v>
       </c>
       <c r="E14">
-        <v>4.49529206583733</v>
+        <v>10.25467023365324</v>
       </c>
       <c r="F14">
-        <v>56.16345917263907</v>
+        <v>31.90453203996734</v>
       </c>
       <c r="G14">
-        <v>89.17563094315311</v>
+        <v>47.17692586911504</v>
       </c>
       <c r="H14">
-        <v>22.1620881802028</v>
+        <v>15.04705112296574</v>
       </c>
       <c r="I14">
-        <v>12.19320900222827</v>
+        <v>17.14416418674232</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.74137284155051</v>
+        <v>22.56238278489783</v>
       </c>
       <c r="N14">
-        <v>14.63538427755593</v>
+        <v>16.90277950366285</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.01199518865118</v>
+        <v>7.985025858246337</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.06031033209742</v>
+        <v>3.363663057622587</v>
       </c>
       <c r="E15">
-        <v>4.531972550307012</v>
+        <v>10.26510211066606</v>
       </c>
       <c r="F15">
-        <v>55.77980595092858</v>
+        <v>31.7840428847872</v>
       </c>
       <c r="G15">
-        <v>88.56297073031108</v>
+        <v>46.95354162360475</v>
       </c>
       <c r="H15">
-        <v>22.00996873776313</v>
+        <v>15.01532653401314</v>
       </c>
       <c r="I15">
-        <v>12.19901563217013</v>
+        <v>17.1500338396772</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.49367003343274</v>
+        <v>22.46946203316618</v>
       </c>
       <c r="N15">
-        <v>14.61107404641703</v>
+        <v>16.89762966704086</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.68089704755393</v>
+        <v>7.852622436054109</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.859889210555923</v>
+        <v>3.318976745513148</v>
       </c>
       <c r="E16">
-        <v>4.741813825219483</v>
+        <v>10.3256801963601</v>
       </c>
       <c r="F16">
-        <v>53.57335452238039</v>
+        <v>31.08795270780165</v>
       </c>
       <c r="G16">
-        <v>85.04031373190061</v>
+        <v>45.65677221663939</v>
       </c>
       <c r="H16">
-        <v>21.13549207102599</v>
+        <v>14.83384788195595</v>
       </c>
       <c r="I16">
-        <v>12.23527410710897</v>
+        <v>17.18481735219953</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.06230225875805</v>
+        <v>21.93032552938669</v>
       </c>
       <c r="N16">
-        <v>14.47210671390641</v>
+        <v>16.86869326107147</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.47257217566518</v>
+        <v>7.770347838971958</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.737248558534985</v>
+        <v>3.307849813375878</v>
       </c>
       <c r="E17">
-        <v>4.870331189798403</v>
+        <v>10.36355677013305</v>
       </c>
       <c r="F17">
-        <v>52.21104844652584</v>
+        <v>30.65612752861015</v>
       </c>
       <c r="G17">
-        <v>82.86604497535865</v>
+        <v>44.84663632358404</v>
       </c>
       <c r="H17">
-        <v>20.59590377066307</v>
+        <v>14.7228633843301</v>
       </c>
       <c r="I17">
-        <v>12.26013867776678</v>
+        <v>17.20717937252162</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>38.17276993950857</v>
+        <v>21.59377056136433</v>
       </c>
       <c r="N17">
-        <v>14.3872051609244</v>
+        <v>16.85146072209652</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.35083159829389</v>
+        <v>7.722655002614663</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.66674019549844</v>
+        <v>3.301579626600561</v>
       </c>
       <c r="E18">
-        <v>4.944214756950164</v>
+        <v>10.38560571628005</v>
       </c>
       <c r="F18">
-        <v>51.42366878515062</v>
+        <v>30.40607942049092</v>
       </c>
       <c r="G18">
-        <v>81.60959658743894</v>
+        <v>44.37540165879822</v>
       </c>
       <c r="H18">
-        <v>20.28415095448602</v>
+        <v>14.65917921957151</v>
       </c>
       <c r="I18">
-        <v>12.27538692857463</v>
+        <v>17.22041755251448</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.65662814543261</v>
+        <v>21.39810648159698</v>
       </c>
       <c r="N18">
-        <v>14.33851733096672</v>
+        <v>16.84174199772819</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.30928262412863</v>
+        <v>7.706444835626526</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.642865403365935</v>
+        <v>3.299479024110706</v>
       </c>
       <c r="E19">
-        <v>4.969228185341495</v>
+        <v>10.39311643406199</v>
       </c>
       <c r="F19">
-        <v>51.15636629613599</v>
+        <v>30.32113878713424</v>
       </c>
       <c r="G19">
-        <v>81.1830892835569</v>
+        <v>44.21495574550136</v>
       </c>
       <c r="H19">
-        <v>20.17833543094248</v>
+        <v>14.63764509198047</v>
       </c>
       <c r="I19">
-        <v>12.28071075158319</v>
+        <v>17.22496437602249</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.48107071767847</v>
+        <v>21.33150457580776</v>
       </c>
       <c r="N19">
-        <v>14.32205895574494</v>
+        <v>16.83848475853441</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.49494709402673</v>
+        <v>7.779144818927562</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.750298866288323</v>
+        <v>3.309020890388621</v>
       </c>
       <c r="E20">
-        <v>4.856654987855881</v>
+        <v>10.35949751162927</v>
       </c>
       <c r="F20">
-        <v>52.35645030564024</v>
+        <v>30.70227134811432</v>
       </c>
       <c r="G20">
-        <v>83.09808543394522</v>
+        <v>44.93342412073215</v>
       </c>
       <c r="H20">
-        <v>20.65348308616129</v>
+        <v>14.73466276544734</v>
       </c>
       <c r="I20">
-        <v>12.25739343475317</v>
+        <v>17.20475996884622</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>38.26792208447045</v>
+        <v>21.62981452475073</v>
       </c>
       <c r="N20">
-        <v>14.3962284047335</v>
+        <v>16.85327523308691</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.09587212228314</v>
+        <v>8.018873612519458</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.112225453231546</v>
+        <v>3.37925055031426</v>
       </c>
       <c r="E21">
-        <v>4.477694896778341</v>
+        <v>10.24968193193248</v>
       </c>
       <c r="F21">
-        <v>56.34731716810222</v>
+        <v>31.96220763104661</v>
       </c>
       <c r="G21">
-        <v>89.46925193052031</v>
+        <v>47.28374704962615</v>
       </c>
       <c r="H21">
-        <v>22.23499537255438</v>
+        <v>15.06226879682304</v>
       </c>
       <c r="I21">
-        <v>12.19047789130334</v>
+        <v>17.14136981556455</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.85995541501406</v>
+        <v>22.60682169128327</v>
       </c>
       <c r="N21">
-        <v>14.64704717646069</v>
+        <v>16.90525908422664</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.47162973801945</v>
+        <v>8.171941405100762</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.350967898649317</v>
+        <v>3.449528335817446</v>
       </c>
       <c r="E22">
-        <v>4.228798843058818</v>
+        <v>10.18023500140366</v>
       </c>
       <c r="F22">
-        <v>58.93572326597529</v>
+        <v>32.76893214937775</v>
       </c>
       <c r="G22">
-        <v>93.60407813818324</v>
+        <v>48.77087108740598</v>
       </c>
       <c r="H22">
-        <v>23.26188841469975</v>
+        <v>15.27722483257682</v>
       </c>
       <c r="I22">
-        <v>12.15551771412575</v>
+        <v>17.10328966379829</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.52086699981004</v>
+        <v>23.22577707259365</v>
       </c>
       <c r="N22">
-        <v>14.81190537735946</v>
+        <v>16.94090380318338</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.27262948070997</v>
+        <v>8.090590540036276</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.22323775206327</v>
+        <v>3.412219303498591</v>
       </c>
       <c r="E23">
-        <v>4.361794817575677</v>
+        <v>10.21708852308625</v>
       </c>
       <c r="F23">
-        <v>57.55527557946667</v>
+        <v>32.33997915171638</v>
       </c>
       <c r="G23">
-        <v>91.39862406264923</v>
+        <v>47.98173244746828</v>
       </c>
       <c r="H23">
-        <v>22.71411363290148</v>
+        <v>15.16244506857532</v>
       </c>
       <c r="I23">
-        <v>12.17335810692326</v>
+        <v>17.12330735648814</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.63705261403832</v>
+        <v>22.89726385845315</v>
       </c>
       <c r="N23">
-        <v>14.72385029589171</v>
+        <v>16.92172909038196</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.4848375362265</v>
+        <v>7.775168921983408</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.744398843590167</v>
+        <v>3.308491051160271</v>
       </c>
       <c r="E24">
-        <v>4.862837997426843</v>
+        <v>10.36133185121008</v>
       </c>
       <c r="F24">
-        <v>52.29072726317894</v>
+        <v>30.68141526953259</v>
       </c>
       <c r="G24">
-        <v>82.99320021359918</v>
+        <v>44.89420439222142</v>
       </c>
       <c r="H24">
-        <v>20.62745632102228</v>
+        <v>14.7293278787015</v>
       </c>
       <c r="I24">
-        <v>12.25863159376032</v>
+        <v>17.20585259153404</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>38.22491862842875</v>
+        <v>21.61352580925264</v>
       </c>
       <c r="N24">
-        <v>14.39214860856308</v>
+        <v>16.85245430502912</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.56173572075603</v>
+        <v>7.42098843883601</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.228471991106012</v>
+        <v>3.265138485433519</v>
       </c>
       <c r="E25">
-        <v>5.402392168766875</v>
+        <v>10.52700261313482</v>
       </c>
       <c r="F25">
-        <v>46.46143451204037</v>
+        <v>28.82979476913687</v>
       </c>
       <c r="G25">
-        <v>73.69460266829378</v>
+        <v>41.36429768869589</v>
       </c>
       <c r="H25">
-        <v>18.32142047342266</v>
+        <v>14.26823080901916</v>
       </c>
       <c r="I25">
-        <v>12.38658700336712</v>
+        <v>17.30927146607559</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.36970282425486</v>
+        <v>20.14985914725671</v>
       </c>
       <c r="N25">
-        <v>14.04009296352232</v>
+        <v>16.78513402192961</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.150083774525282</v>
+        <v>8.818562265955817</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.237573490718583</v>
+        <v>3.84157991230304</v>
       </c>
       <c r="E2">
-        <v>10.65779238487089</v>
+        <v>5.803468745772827</v>
       </c>
       <c r="F2">
-        <v>27.42418067053856</v>
+        <v>41.98363339203299</v>
       </c>
       <c r="G2">
-        <v>38.6082390399357</v>
+        <v>66.55643107322793</v>
       </c>
       <c r="H2">
-        <v>13.93665405262289</v>
+        <v>16.55343040827081</v>
       </c>
       <c r="I2">
-        <v>17.39779600370851</v>
+        <v>12.50979111190688</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.01097732685402</v>
+        <v>31.35254226578109</v>
       </c>
       <c r="N2">
-        <v>16.74216291963044</v>
+        <v>13.78752540780549</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.96126610514583</v>
+        <v>8.275221784415329</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.221632694131318</v>
+        <v>3.572235534905455</v>
       </c>
       <c r="E3">
-        <v>10.75199199973205</v>
+        <v>6.079702491294578</v>
       </c>
       <c r="F3">
-        <v>26.45221855932836</v>
+        <v>38.81228394269213</v>
       </c>
       <c r="G3">
-        <v>36.65244489645163</v>
+        <v>61.50251501015743</v>
       </c>
       <c r="H3">
-        <v>13.71826460683177</v>
+        <v>15.30325789812359</v>
       </c>
       <c r="I3">
-        <v>17.46551527722893</v>
+        <v>12.6103801482268</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.20532322585688</v>
+        <v>29.1855503499687</v>
       </c>
       <c r="N3">
-        <v>16.71726560329046</v>
+        <v>13.62132128130498</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.843164313807258</v>
+        <v>7.922064041189208</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.213198901088585</v>
+        <v>3.402624783165591</v>
       </c>
       <c r="E4">
-        <v>10.81259673085782</v>
+        <v>6.252094989385423</v>
       </c>
       <c r="F4">
-        <v>25.84858229052279</v>
+        <v>36.79232160715376</v>
       </c>
       <c r="G4">
-        <v>35.41245292027211</v>
+        <v>58.28385320343551</v>
       </c>
       <c r="H4">
-        <v>13.5877488252076</v>
+        <v>14.50792894991323</v>
       </c>
       <c r="I4">
-        <v>17.51090699389515</v>
+        <v>12.68024853437604</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.69575121732931</v>
+        <v>27.79183120955814</v>
       </c>
       <c r="N4">
-        <v>16.70409753502454</v>
+        <v>13.52198090780247</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.794558456863385</v>
+        <v>7.773247700105419</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.210102356666742</v>
+        <v>3.332355888701187</v>
       </c>
       <c r="E5">
-        <v>10.83799223349365</v>
+        <v>6.323128130553843</v>
       </c>
       <c r="F5">
-        <v>25.60132012339781</v>
+        <v>35.95024054433572</v>
       </c>
       <c r="G5">
-        <v>34.89807123698314</v>
+        <v>56.94209324283784</v>
       </c>
       <c r="H5">
-        <v>13.53552980815524</v>
+        <v>14.17661198770517</v>
       </c>
       <c r="I5">
-        <v>17.53036315264098</v>
+        <v>12.71071157314887</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.48465987682765</v>
+        <v>27.20762770507205</v>
       </c>
       <c r="N5">
-        <v>16.69926957048985</v>
+        <v>13.48221887479164</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.786460617431629</v>
+        <v>7.748241347280103</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.209608713459607</v>
+        <v>3.320616012930715</v>
       </c>
       <c r="E6">
-        <v>10.84225142077871</v>
+        <v>6.334972618273555</v>
       </c>
       <c r="F6">
-        <v>25.56019909244887</v>
+        <v>35.80925408115422</v>
       </c>
       <c r="G6">
-        <v>34.81213511163889</v>
+        <v>56.71744765359799</v>
       </c>
       <c r="H6">
-        <v>13.526919237882</v>
+        <v>14.12115527761013</v>
       </c>
       <c r="I6">
-        <v>17.53365173822968</v>
+        <v>12.71588883588378</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.4494105548347</v>
+        <v>27.10962989341291</v>
       </c>
       <c r="N6">
-        <v>16.69850054216067</v>
+        <v>13.47566100321308</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.842510644523197</v>
+        <v>7.920076875915159</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.213155762846229</v>
+        <v>3.401681877119959</v>
       </c>
       <c r="E7">
-        <v>10.81293639081975</v>
+        <v>6.253049698194971</v>
       </c>
       <c r="F7">
-        <v>25.84525217626835</v>
+        <v>36.78104240596598</v>
       </c>
       <c r="G7">
-        <v>35.40555143632503</v>
+        <v>58.26588102942834</v>
       </c>
       <c r="H7">
-        <v>13.58704057692082</v>
+        <v>14.50349018517432</v>
       </c>
       <c r="I7">
-        <v>17.51116550462779</v>
+        <v>12.68065136923394</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.69291784332987</v>
+        <v>27.78401868523213</v>
       </c>
       <c r="N7">
-        <v>16.70403023771417</v>
+        <v>13.52144169804542</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.08546782846554</v>
+        <v>8.635280272241221</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.23179619608532</v>
+        <v>3.749531116283101</v>
       </c>
       <c r="E8">
-        <v>10.68970025017861</v>
+        <v>5.898187642724953</v>
       </c>
       <c r="F8">
-        <v>27.09072660808541</v>
+        <v>40.90482388017524</v>
       </c>
       <c r="G8">
-        <v>37.94242438528103</v>
+        <v>64.83710807902374</v>
       </c>
       <c r="H8">
-        <v>13.86065255094231</v>
+        <v>16.12795924221827</v>
       </c>
       <c r="I8">
-        <v>17.4203545683044</v>
+        <v>12.54276295332593</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.73645360723136</v>
+        <v>30.61823936146596</v>
       </c>
       <c r="N8">
-        <v>16.73314177615014</v>
+        <v>13.72967946630278</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.542001657786275</v>
+        <v>9.882527027165334</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.279069813196457</v>
+        <v>4.402923174436956</v>
       </c>
       <c r="E9">
-        <v>10.46983714849303</v>
+        <v>5.220342940467881</v>
       </c>
       <c r="F9">
-        <v>29.46092769062381</v>
+        <v>48.45065920099164</v>
       </c>
       <c r="G9">
-        <v>42.5788612755204</v>
+        <v>76.86684610752096</v>
       </c>
       <c r="H9">
-        <v>14.42250350450595</v>
+        <v>19.10780432209034</v>
       </c>
       <c r="I9">
-        <v>17.27251250553626</v>
+        <v>12.33884930054019</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.65290693831806</v>
+        <v>35.6944297240642</v>
       </c>
       <c r="N9">
-        <v>16.80680131513294</v>
+        <v>14.15776209940605</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.861959212412339</v>
+        <v>10.70440880703095</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.320263910469704</v>
+        <v>4.873893398986466</v>
       </c>
       <c r="E10">
-        <v>10.32139382752222</v>
+        <v>4.727141149713768</v>
       </c>
       <c r="F10">
-        <v>31.13699360560532</v>
+        <v>53.72832870278491</v>
       </c>
       <c r="G10">
-        <v>45.74849311264558</v>
+        <v>85.28768813569576</v>
       </c>
       <c r="H10">
-        <v>14.84653074450542</v>
+        <v>21.19689098134634</v>
       </c>
       <c r="I10">
-        <v>17.18231665668406</v>
+        <v>12.2325663845237</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.96844238940022</v>
+        <v>39.1632147504868</v>
       </c>
       <c r="N10">
-        <v>16.87068560099842</v>
+        <v>14.48181307547376</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.003545257199853</v>
+        <v>11.05792442063531</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.372193830603782</v>
+        <v>5.088678464604119</v>
       </c>
       <c r="E11">
-        <v>10.25666204977734</v>
+        <v>4.502308190818971</v>
       </c>
       <c r="F11">
-        <v>31.88151313408289</v>
+        <v>56.09011843773125</v>
       </c>
       <c r="G11">
-        <v>47.13427301494739</v>
+        <v>89.05850879465575</v>
       </c>
       <c r="H11">
-        <v>15.0409833283446</v>
+        <v>22.13300686195959</v>
       </c>
       <c r="I11">
-        <v>17.14528220591784</v>
+        <v>12.19430775265953</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.54463952185646</v>
+        <v>40.69404798528409</v>
       </c>
       <c r="N11">
-        <v>16.90179248740682</v>
+        <v>14.63073420535116</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.056544826091546</v>
+        <v>11.18887827423585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.396577823217257</v>
+        <v>5.170360521058378</v>
       </c>
       <c r="E12">
-        <v>10.23254847280973</v>
+        <v>4.416969257095371</v>
       </c>
       <c r="F12">
-        <v>32.16059633441947</v>
+        <v>56.98085078384497</v>
       </c>
       <c r="G12">
-        <v>47.65065836262198</v>
+        <v>90.48108511716367</v>
       </c>
       <c r="H12">
-        <v>15.11476914077003</v>
+        <v>22.48625224401512</v>
       </c>
       <c r="I12">
-        <v>17.13183263332164</v>
+        <v>12.18132160316503</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.75948374120577</v>
+        <v>41.26794924553139</v>
       </c>
       <c r="N12">
-        <v>16.91385913076721</v>
+        <v>14.68729224588862</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.045158503519795</v>
+        <v>11.16080441311098</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.391342837851548</v>
+        <v>5.15274836125345</v>
       </c>
       <c r="E13">
-        <v>10.23772406933488</v>
+        <v>4.435359511889194</v>
       </c>
       <c r="F13">
-        <v>32.10062151887529</v>
+        <v>56.78914028695273</v>
       </c>
       <c r="G13">
-        <v>47.53982258135398</v>
+        <v>90.1748859326154</v>
       </c>
       <c r="H13">
-        <v>15.09887248764644</v>
+        <v>22.41021491833426</v>
       </c>
       <c r="I13">
-        <v>17.13470368666518</v>
+        <v>12.18405084955601</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.7133642951603</v>
+        <v>41.1445888773335</v>
       </c>
       <c r="N13">
-        <v>16.91124770660378</v>
+        <v>14.67510499900872</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.007918157103754</v>
+        <v>11.06875640377454</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.374207361762671</v>
+        <v>5.095389749993178</v>
       </c>
       <c r="E14">
-        <v>10.25467023365324</v>
+        <v>4.495292065837431</v>
       </c>
       <c r="F14">
-        <v>31.90453203996734</v>
+        <v>56.16345917263911</v>
       </c>
       <c r="G14">
-        <v>47.17692586911504</v>
+        <v>89.17563094315305</v>
       </c>
       <c r="H14">
-        <v>15.04705112296574</v>
+        <v>22.16208818020282</v>
       </c>
       <c r="I14">
-        <v>17.14416418674232</v>
+        <v>12.19320900222836</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.56238278489783</v>
+        <v>40.74137284155056</v>
       </c>
       <c r="N14">
-        <v>16.90277950366285</v>
+        <v>14.63538427755598</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.985025858246337</v>
+        <v>11.01199518865119</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.363663057622587</v>
+        <v>5.060310332097409</v>
       </c>
       <c r="E15">
-        <v>10.26510211066606</v>
+        <v>4.531972550307113</v>
       </c>
       <c r="F15">
-        <v>31.7840428847872</v>
+        <v>55.7798059509287</v>
       </c>
       <c r="G15">
-        <v>46.95354162360475</v>
+        <v>88.56297073031126</v>
       </c>
       <c r="H15">
-        <v>15.01532653401314</v>
+        <v>22.00996873776319</v>
       </c>
       <c r="I15">
-        <v>17.1500338396772</v>
+        <v>12.19901563217015</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.46946203316618</v>
+        <v>40.49367003343283</v>
       </c>
       <c r="N15">
-        <v>16.89762966704086</v>
+        <v>14.61107404641705</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.852622436054109</v>
+        <v>10.68089704755396</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.318976745513148</v>
+        <v>4.85988921055591</v>
       </c>
       <c r="E16">
-        <v>10.3256801963601</v>
+        <v>4.741813825219516</v>
       </c>
       <c r="F16">
-        <v>31.08795270780165</v>
+        <v>53.57335452238077</v>
       </c>
       <c r="G16">
-        <v>45.65677221663939</v>
+        <v>85.04031373190121</v>
       </c>
       <c r="H16">
-        <v>14.83384788195595</v>
+        <v>21.13549207102615</v>
       </c>
       <c r="I16">
-        <v>17.18481735219953</v>
+        <v>12.23527410710894</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.93032552938669</v>
+        <v>39.06230225875822</v>
       </c>
       <c r="N16">
-        <v>16.86869326107147</v>
+        <v>14.47210671390638</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.770347838971958</v>
+        <v>10.4725721756652</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.307849813375878</v>
+        <v>4.737248558534783</v>
       </c>
       <c r="E17">
-        <v>10.36355677013305</v>
+        <v>4.870331189798436</v>
       </c>
       <c r="F17">
-        <v>30.65612752861015</v>
+        <v>52.21104844652585</v>
       </c>
       <c r="G17">
-        <v>44.84663632358404</v>
+        <v>82.86604497535863</v>
       </c>
       <c r="H17">
-        <v>14.7228633843301</v>
+        <v>20.59590377066303</v>
       </c>
       <c r="I17">
-        <v>17.20717937252162</v>
+        <v>12.26013867776684</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.59377056136433</v>
+        <v>38.17276993950858</v>
       </c>
       <c r="N17">
-        <v>16.85146072209652</v>
+        <v>14.38720516092443</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.722655002614663</v>
+        <v>10.35083159829392</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.301579626600561</v>
+        <v>4.666740195498542</v>
       </c>
       <c r="E18">
-        <v>10.38560571628005</v>
+        <v>4.94421475695003</v>
       </c>
       <c r="F18">
-        <v>30.40607942049092</v>
+        <v>51.42366878515045</v>
       </c>
       <c r="G18">
-        <v>44.37540165879822</v>
+        <v>81.60959658743865</v>
       </c>
       <c r="H18">
-        <v>14.65917921957151</v>
+        <v>20.28415095448596</v>
       </c>
       <c r="I18">
-        <v>17.22041755251448</v>
+        <v>12.27538692857464</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.39810648159698</v>
+        <v>37.65662814543256</v>
       </c>
       <c r="N18">
-        <v>16.84174199772819</v>
+        <v>14.33851733096676</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.706444835626526</v>
+        <v>10.30928262412865</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.299479024110706</v>
+        <v>4.642865403365868</v>
       </c>
       <c r="E19">
-        <v>10.39311643406199</v>
+        <v>4.969228185341527</v>
       </c>
       <c r="F19">
-        <v>30.32113878713424</v>
+        <v>51.15636629613613</v>
       </c>
       <c r="G19">
-        <v>44.21495574550136</v>
+        <v>81.18308928355709</v>
       </c>
       <c r="H19">
-        <v>14.63764509198047</v>
+        <v>20.17833543094252</v>
       </c>
       <c r="I19">
-        <v>17.22496437602249</v>
+        <v>12.2807107515832</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.33150457580776</v>
+        <v>37.48107071767856</v>
       </c>
       <c r="N19">
-        <v>16.83848475853441</v>
+        <v>14.32205895574494</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.779144818927562</v>
+        <v>10.49494709402678</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.309020890388621</v>
+        <v>4.750298866288258</v>
       </c>
       <c r="E20">
-        <v>10.35949751162927</v>
+        <v>4.856654987855881</v>
       </c>
       <c r="F20">
-        <v>30.70227134811432</v>
+        <v>52.35645030564024</v>
       </c>
       <c r="G20">
-        <v>44.93342412073215</v>
+        <v>83.09808543394517</v>
       </c>
       <c r="H20">
-        <v>14.73466276544734</v>
+        <v>20.65348308616128</v>
       </c>
       <c r="I20">
-        <v>17.20475996884622</v>
+        <v>12.25739343475311</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.62981452475073</v>
+        <v>38.26792208447042</v>
       </c>
       <c r="N20">
-        <v>16.85327523308691</v>
+        <v>14.3962284047335</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.018873612519458</v>
+        <v>11.09587212228316</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.37925055031426</v>
+        <v>5.112225453231519</v>
       </c>
       <c r="E21">
-        <v>10.24968193193248</v>
+        <v>4.477694896778408</v>
       </c>
       <c r="F21">
-        <v>31.96220763104661</v>
+        <v>56.34731716810225</v>
       </c>
       <c r="G21">
-        <v>47.28374704962615</v>
+        <v>89.46925193052034</v>
       </c>
       <c r="H21">
-        <v>15.06226879682304</v>
+        <v>22.23499537255438</v>
       </c>
       <c r="I21">
-        <v>17.14136981556455</v>
+        <v>12.19047789130332</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.60682169128327</v>
+        <v>40.85995541501406</v>
       </c>
       <c r="N21">
-        <v>16.90525908422664</v>
+        <v>14.64704717646069</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.171941405100762</v>
+        <v>11.47162973801945</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.449528335817446</v>
+        <v>5.350967898649222</v>
       </c>
       <c r="E22">
-        <v>10.18023500140366</v>
+        <v>4.228798843058817</v>
       </c>
       <c r="F22">
-        <v>32.76893214937775</v>
+        <v>58.93572326597521</v>
       </c>
       <c r="G22">
-        <v>48.77087108740598</v>
+        <v>93.60407813818307</v>
       </c>
       <c r="H22">
-        <v>15.27722483257682</v>
+        <v>23.26188841469973</v>
       </c>
       <c r="I22">
-        <v>17.10328966379829</v>
+        <v>12.15551771412577</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.22577707259365</v>
+        <v>42.52086699981</v>
       </c>
       <c r="N22">
-        <v>16.94090380318338</v>
+        <v>14.81190537735947</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.090590540036276</v>
+        <v>11.27262948070998</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.412219303498591</v>
+        <v>5.223237752063291</v>
       </c>
       <c r="E23">
-        <v>10.21708852308625</v>
+        <v>4.36179481757561</v>
       </c>
       <c r="F23">
-        <v>32.33997915171638</v>
+        <v>57.55527557946658</v>
       </c>
       <c r="G23">
-        <v>47.98173244746828</v>
+        <v>91.39862406264905</v>
       </c>
       <c r="H23">
-        <v>15.16244506857532</v>
+        <v>22.71411363290143</v>
       </c>
       <c r="I23">
-        <v>17.12330735648814</v>
+        <v>12.1733581069233</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.89726385845315</v>
+        <v>41.63705261403832</v>
       </c>
       <c r="N23">
-        <v>16.92172909038196</v>
+        <v>14.72385029589172</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.775168921983408</v>
+        <v>10.48483753622652</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.308491051160271</v>
+        <v>4.744398843590112</v>
       </c>
       <c r="E24">
-        <v>10.36133185121008</v>
+        <v>4.862837997426908</v>
       </c>
       <c r="F24">
-        <v>30.68141526953259</v>
+        <v>52.29072726317903</v>
       </c>
       <c r="G24">
-        <v>44.89420439222142</v>
+        <v>82.99320021359927</v>
       </c>
       <c r="H24">
-        <v>14.7293278787015</v>
+        <v>20.6274563210223</v>
       </c>
       <c r="I24">
-        <v>17.20585259153404</v>
+        <v>12.2586315937603</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.61352580925264</v>
+        <v>38.22491862842875</v>
       </c>
       <c r="N24">
-        <v>16.85245430502912</v>
+        <v>14.39214860856301</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.42098843883601</v>
+        <v>9.56173572075604</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.265138485433519</v>
+        <v>4.228471991105928</v>
       </c>
       <c r="E25">
-        <v>10.52700261313482</v>
+        <v>5.402392168766943</v>
       </c>
       <c r="F25">
-        <v>28.82979476913687</v>
+        <v>46.46143451204053</v>
       </c>
       <c r="G25">
-        <v>41.36429768869589</v>
+        <v>73.69460266829405</v>
       </c>
       <c r="H25">
-        <v>14.26823080901916</v>
+        <v>18.32142047342272</v>
       </c>
       <c r="I25">
-        <v>17.30927146607559</v>
+        <v>12.38658700336713</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.14985914725671</v>
+        <v>34.36970282425496</v>
       </c>
       <c r="N25">
-        <v>16.78513402192961</v>
+        <v>14.04009296352233</v>
       </c>
       <c r="O25">
         <v>0</v>
